--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>14.8633890070595</v>
+        <v>0.1444173333333333</v>
       </c>
       <c r="N2">
-        <v>14.8633890070595</v>
+        <v>0.433252</v>
       </c>
       <c r="O2">
-        <v>0.4072611455197409</v>
+        <v>0.003554110791691976</v>
       </c>
       <c r="P2">
-        <v>0.4072611455197409</v>
+        <v>0.003583730627916089</v>
       </c>
       <c r="Q2">
-        <v>2049.530063240517</v>
+        <v>21.91187466724222</v>
       </c>
       <c r="R2">
-        <v>2049.530063240517</v>
+        <v>197.20687200518</v>
       </c>
       <c r="S2">
-        <v>0.1065362607928252</v>
+        <v>0.0009598727256643746</v>
       </c>
       <c r="T2">
-        <v>0.1065362607928252</v>
+        <v>0.0009974835769974502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.6301486372621</v>
+        <v>17.275143</v>
       </c>
       <c r="N3">
-        <v>20.6301486372621</v>
+        <v>51.825429</v>
       </c>
       <c r="O3">
-        <v>0.5652720225692368</v>
+        <v>0.4251412953499726</v>
       </c>
       <c r="P3">
-        <v>0.5652720225692368</v>
+        <v>0.4286844081785905</v>
       </c>
       <c r="Q3">
-        <v>2844.715281360583</v>
+        <v>2621.089584869915</v>
       </c>
       <c r="R3">
-        <v>2844.715281360583</v>
+        <v>23589.80626382924</v>
       </c>
       <c r="S3">
-        <v>0.1478706433889479</v>
+        <v>0.1148195871985716</v>
       </c>
       <c r="T3">
-        <v>0.1478706433889479</v>
+        <v>0.1193185820223505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.00242856942328</v>
+        <v>22.20679833333334</v>
       </c>
       <c r="N4">
-        <v>1.00242856942328</v>
+        <v>66.620395</v>
       </c>
       <c r="O4">
-        <v>0.02746683191102231</v>
+        <v>0.5465093405599564</v>
       </c>
       <c r="P4">
-        <v>0.02746683191102231</v>
+        <v>0.551063930473184</v>
       </c>
       <c r="Q4">
-        <v>138.2260457765311</v>
+        <v>3369.350275410548</v>
       </c>
       <c r="R4">
-        <v>138.2260457765311</v>
+        <v>30324.15247869493</v>
       </c>
       <c r="S4">
-        <v>0.007185103710031006</v>
+        <v>0.1475979340741354</v>
       </c>
       <c r="T4">
-        <v>0.007185103710031006</v>
+        <v>0.153381288270067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.8633890070595</v>
+        <v>1.0075275</v>
       </c>
       <c r="N5">
-        <v>14.8633890070595</v>
+        <v>2.015055</v>
       </c>
       <c r="O5">
-        <v>0.4072611455197409</v>
+        <v>0.02479525329837903</v>
       </c>
       <c r="P5">
-        <v>0.4072611455197409</v>
+        <v>0.01666793072030932</v>
       </c>
       <c r="Q5">
-        <v>1123.750445193524</v>
+        <v>152.8681896711375</v>
       </c>
       <c r="R5">
-        <v>1123.750445193524</v>
+        <v>917.2091380268249</v>
       </c>
       <c r="S5">
-        <v>0.05841347372377693</v>
+        <v>0.006696551897787984</v>
       </c>
       <c r="T5">
-        <v>0.05841347372377693</v>
+        <v>0.004639295996894641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J6">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>20.6301486372621</v>
+        <v>0.1444173333333333</v>
       </c>
       <c r="N6">
-        <v>20.6301486372621</v>
+        <v>0.433252</v>
       </c>
       <c r="O6">
-        <v>0.5652720225692368</v>
+        <v>0.003554110791691976</v>
       </c>
       <c r="P6">
-        <v>0.5652720225692368</v>
+        <v>0.003583730627916089</v>
       </c>
       <c r="Q6">
-        <v>1559.747827667084</v>
+        <v>11.87816261949733</v>
       </c>
       <c r="R6">
-        <v>1559.747827667084</v>
+        <v>106.903463575476</v>
       </c>
       <c r="S6">
-        <v>0.08107697677615511</v>
+        <v>0.0005203354118534925</v>
       </c>
       <c r="T6">
-        <v>0.08107697677615511</v>
+        <v>0.0005407238001213339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.00242856942328</v>
+        <v>17.275143</v>
       </c>
       <c r="N7">
-        <v>1.00242856942328</v>
+        <v>51.825429</v>
       </c>
       <c r="O7">
-        <v>0.02746683191102231</v>
+        <v>0.4251412953499726</v>
       </c>
       <c r="P7">
-        <v>0.02746683191102231</v>
+        <v>0.4286844081785905</v>
       </c>
       <c r="Q7">
-        <v>75.78887632080995</v>
+        <v>1420.861008113553</v>
       </c>
       <c r="R7">
-        <v>75.78887632080995</v>
+        <v>12787.74907302198</v>
       </c>
       <c r="S7">
-        <v>0.003939568215038891</v>
+        <v>0.06224231150277192</v>
       </c>
       <c r="T7">
-        <v>0.003939568215038891</v>
+        <v>0.06468116226075905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.8633890070595</v>
+        <v>22.20679833333334</v>
       </c>
       <c r="N8">
-        <v>14.8633890070595</v>
+        <v>66.620395</v>
       </c>
       <c r="O8">
-        <v>0.4072611455197409</v>
+        <v>0.5465093405599564</v>
       </c>
       <c r="P8">
-        <v>0.4072611455197409</v>
+        <v>0.551063930473184</v>
       </c>
       <c r="Q8">
-        <v>1693.188540014494</v>
+        <v>1826.484091441348</v>
       </c>
       <c r="R8">
-        <v>1693.188540014494</v>
+        <v>16438.35682297213</v>
       </c>
       <c r="S8">
-        <v>0.08801333491307686</v>
+        <v>0.08001105746809561</v>
       </c>
       <c r="T8">
-        <v>0.08801333491307686</v>
+        <v>0.0831461439300553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.6301486372621</v>
+        <v>1.0075275</v>
       </c>
       <c r="N9">
-        <v>20.6301486372621</v>
+        <v>2.015055</v>
       </c>
       <c r="O9">
-        <v>0.5652720225692368</v>
+        <v>0.02479525329837903</v>
       </c>
       <c r="P9">
-        <v>0.5652720225692368</v>
+        <v>0.01666793072030932</v>
       </c>
       <c r="Q9">
-        <v>2350.118888418863</v>
+        <v>82.86799937645249</v>
       </c>
       <c r="R9">
-        <v>2350.118888418863</v>
+        <v>497.207996258715</v>
       </c>
       <c r="S9">
-        <v>0.1221611155070697</v>
+        <v>0.003630119907117934</v>
       </c>
       <c r="T9">
-        <v>0.1221611155070697</v>
+        <v>0.002514906329465287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H10">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I10">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J10">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.00242856942328</v>
+        <v>0.1444173333333333</v>
       </c>
       <c r="N10">
-        <v>1.00242856942328</v>
+        <v>0.433252</v>
       </c>
       <c r="O10">
-        <v>0.02746683191102231</v>
+        <v>0.003554110791691976</v>
       </c>
       <c r="P10">
-        <v>0.02746683191102231</v>
+        <v>0.003583730627916089</v>
       </c>
       <c r="Q10">
-        <v>114.1933757586829</v>
+        <v>17.827499653964</v>
       </c>
       <c r="R10">
-        <v>114.1933757586829</v>
+        <v>160.447496885676</v>
       </c>
       <c r="S10">
-        <v>0.005935865727875616</v>
+        <v>0.0007809523805926739</v>
       </c>
       <c r="T10">
-        <v>0.005935865727875616</v>
+        <v>0.0008115525665333179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,57 +1092,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H11">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I11">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J11">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.8633890070595</v>
+        <v>17.275143</v>
       </c>
       <c r="N11">
-        <v>14.8633890070595</v>
+        <v>51.825429</v>
       </c>
       <c r="O11">
-        <v>0.4072611455197409</v>
+        <v>0.4251412953499726</v>
       </c>
       <c r="P11">
-        <v>0.4072611455197409</v>
+        <v>0.4286844081785905</v>
       </c>
       <c r="Q11">
-        <v>2242.915483519419</v>
+        <v>2132.518297812903</v>
       </c>
       <c r="R11">
-        <v>2242.915483519419</v>
+        <v>19192.66468031613</v>
       </c>
       <c r="S11">
-        <v>0.1165885942217814</v>
+        <v>0.09341720789006538</v>
       </c>
       <c r="T11">
-        <v>0.1165885942217814</v>
+        <v>0.09707758975524694</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H12">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I12">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J12">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.6301486372621</v>
+        <v>22.20679833333334</v>
       </c>
       <c r="N12">
-        <v>20.6301486372621</v>
+        <v>66.620395</v>
       </c>
       <c r="O12">
-        <v>0.5652720225692368</v>
+        <v>0.5465093405599564</v>
       </c>
       <c r="P12">
-        <v>0.5652720225692368</v>
+        <v>0.551063930473184</v>
       </c>
       <c r="Q12">
-        <v>3113.13118319416</v>
+        <v>2741.303141842265</v>
       </c>
       <c r="R12">
-        <v>3113.13118319416</v>
+        <v>24671.72827658039</v>
       </c>
       <c r="S12">
-        <v>0.1618231230483436</v>
+        <v>0.1200856685514995</v>
       </c>
       <c r="T12">
-        <v>0.1618231230483436</v>
+        <v>0.1247910051095285</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>150.902023922951</v>
+        <v>123.444321</v>
       </c>
       <c r="H13">
-        <v>150.902023922951</v>
+        <v>370.332963</v>
       </c>
       <c r="I13">
-        <v>0.2862747784913111</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J13">
-        <v>0.2862747784913111</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.00242856942328</v>
+        <v>1.0075275</v>
       </c>
       <c r="N13">
-        <v>1.00242856942328</v>
+        <v>2.015055</v>
       </c>
       <c r="O13">
-        <v>0.02746683191102231</v>
+        <v>0.02479525329837903</v>
       </c>
       <c r="P13">
-        <v>0.02746683191102231</v>
+        <v>0.01666793072030932</v>
       </c>
       <c r="Q13">
-        <v>151.2684999641614</v>
+        <v>124.3735481263275</v>
       </c>
       <c r="R13">
-        <v>151.2684999641614</v>
+        <v>746.241288757965</v>
       </c>
       <c r="S13">
-        <v>0.007863061221185986</v>
+        <v>0.005448314142606972</v>
       </c>
       <c r="T13">
-        <v>0.007863061221185986</v>
+        <v>0.003774530889541871</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H14">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I14">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J14">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>14.8633890070595</v>
+        <v>0.1444173333333333</v>
       </c>
       <c r="N14">
-        <v>14.8633890070595</v>
+        <v>0.433252</v>
       </c>
       <c r="O14">
-        <v>0.4072611455197409</v>
+        <v>0.003554110791691976</v>
       </c>
       <c r="P14">
-        <v>0.4072611455197409</v>
+        <v>0.003583730627916089</v>
       </c>
       <c r="Q14">
-        <v>725.449872025814</v>
+        <v>22.28980110892888</v>
       </c>
       <c r="R14">
-        <v>725.449872025814</v>
+        <v>200.60820998036</v>
       </c>
       <c r="S14">
-        <v>0.03770948186828039</v>
+        <v>0.0009764281910999603</v>
       </c>
       <c r="T14">
-        <v>0.03770948186828039</v>
+        <v>0.001014687737965891</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,427 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.8078372759574</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H15">
-        <v>48.8078372759574</v>
+        <v>463.02893</v>
       </c>
       <c r="I15">
-        <v>0.09259287875389165</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J15">
-        <v>0.09259287875389165</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.6301486372621</v>
+        <v>17.275143</v>
       </c>
       <c r="N15">
-        <v>20.6301486372621</v>
+        <v>51.825429</v>
       </c>
       <c r="O15">
-        <v>0.5652720225692368</v>
+        <v>0.4251412953499726</v>
       </c>
       <c r="P15">
-        <v>0.5652720225692368</v>
+        <v>0.4286844081785905</v>
       </c>
       <c r="Q15">
-        <v>1006.912937666303</v>
+        <v>2666.29699296233</v>
       </c>
       <c r="R15">
-        <v>1006.912937666303</v>
+        <v>23996.67293666097</v>
       </c>
       <c r="S15">
-        <v>0.05234016384872044</v>
+        <v>0.1167999452776893</v>
       </c>
       <c r="T15">
-        <v>0.05234016384872044</v>
+        <v>0.1213765367987266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H16">
+        <v>463.02893</v>
+      </c>
+      <c r="I16">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J16">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>22.20679833333334</v>
+      </c>
+      <c r="N16">
+        <v>66.620395</v>
+      </c>
+      <c r="O16">
+        <v>0.5465093405599564</v>
+      </c>
+      <c r="P16">
+        <v>0.551063930473184</v>
+      </c>
+      <c r="Q16">
+        <v>3427.463357003039</v>
+      </c>
+      <c r="R16">
+        <v>30847.17021302735</v>
+      </c>
+      <c r="S16">
+        <v>0.1501436387603862</v>
+      </c>
+      <c r="T16">
+        <v>0.156026741722933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H17">
+        <v>463.02893</v>
+      </c>
+      <c r="I17">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J17">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.0075275</v>
+      </c>
+      <c r="N17">
+        <v>2.015055</v>
+      </c>
+      <c r="O17">
+        <v>0.02479525329837903</v>
+      </c>
+      <c r="P17">
+        <v>0.01666793072030932</v>
+      </c>
+      <c r="Q17">
+        <v>155.504793423525</v>
+      </c>
+      <c r="R17">
+        <v>933.0287605411499</v>
+      </c>
+      <c r="S17">
+        <v>0.006812051099418805</v>
+      </c>
+      <c r="T17">
+        <v>0.004719312547493972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="H16">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="I16">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="J16">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.00242856942328</v>
-      </c>
-      <c r="N16">
-        <v>1.00242856942328</v>
-      </c>
-      <c r="O16">
-        <v>0.02746683191102231</v>
-      </c>
-      <c r="P16">
-        <v>0.02746683191102231</v>
-      </c>
-      <c r="Q16">
-        <v>48.92637049718221</v>
-      </c>
-      <c r="R16">
-        <v>48.92637049718221</v>
-      </c>
-      <c r="S16">
-        <v>0.002543233036890811</v>
-      </c>
-      <c r="T16">
-        <v>0.002543233036890811</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>50.0323125</v>
+      </c>
+      <c r="H18">
+        <v>100.064625</v>
+      </c>
+      <c r="I18">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J18">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1444173333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.433252</v>
+      </c>
+      <c r="O18">
+        <v>0.003554110791691976</v>
+      </c>
+      <c r="P18">
+        <v>0.003583730627916089</v>
+      </c>
+      <c r="Q18">
+        <v>7.22553315175</v>
+      </c>
+      <c r="R18">
+        <v>43.3531989105</v>
+      </c>
+      <c r="S18">
+        <v>0.0003165220824814744</v>
+      </c>
+      <c r="T18">
+        <v>0.0002192829462980966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>50.0323125</v>
+      </c>
+      <c r="H19">
+        <v>100.064625</v>
+      </c>
+      <c r="I19">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J19">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.275143</v>
+      </c>
+      <c r="N19">
+        <v>51.825429</v>
+      </c>
+      <c r="O19">
+        <v>0.4251412953499726</v>
+      </c>
+      <c r="P19">
+        <v>0.4286844081785905</v>
+      </c>
+      <c r="Q19">
+        <v>864.3153530581875</v>
+      </c>
+      <c r="R19">
+        <v>5185.892118349126</v>
+      </c>
+      <c r="S19">
+        <v>0.0378622434808744</v>
+      </c>
+      <c r="T19">
+        <v>0.02623053734150753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>50.0323125</v>
+      </c>
+      <c r="H20">
+        <v>100.064625</v>
+      </c>
+      <c r="I20">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J20">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>22.20679833333334</v>
+      </c>
+      <c r="N20">
+        <v>66.620395</v>
+      </c>
+      <c r="O20">
+        <v>0.5465093405599564</v>
+      </c>
+      <c r="P20">
+        <v>0.551063930473184</v>
+      </c>
+      <c r="Q20">
+        <v>1111.057473837813</v>
+      </c>
+      <c r="R20">
+        <v>6666.344843026875</v>
+      </c>
+      <c r="S20">
+        <v>0.04867104170583958</v>
+      </c>
+      <c r="T20">
+        <v>0.03371875144060036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>50.0323125</v>
+      </c>
+      <c r="H21">
+        <v>100.064625</v>
+      </c>
+      <c r="I21">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J21">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.0075275</v>
+      </c>
+      <c r="N21">
+        <v>2.015055</v>
+      </c>
+      <c r="O21">
+        <v>0.02479525329837903</v>
+      </c>
+      <c r="P21">
+        <v>0.01666793072030932</v>
+      </c>
+      <c r="Q21">
+        <v>50.40893073234375</v>
+      </c>
+      <c r="R21">
+        <v>201.635722929375</v>
+      </c>
+      <c r="S21">
+        <v>0.002208216251447336</v>
+      </c>
+      <c r="T21">
+        <v>0.001019884956913554</v>
       </c>
     </row>
   </sheetData>
